--- a/kb_dec.xlsx
+++ b/kb_dec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\Desktop\לימודים\master\CDSS\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/687f7b4a636e44f5/master/CDSS/Project/CDSS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CC5040-D5C1-4D48-BB31-79969C9659AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{E2CC5040-D5C1-4D48-BB31-79969C9659AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{911FA5E1-8981-433F-9487-9232FE5003FE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8389E861-9896-4F04-8F65-8F5CEEC6F140}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{8389E861-9896-4F04-8F65-8F5CEEC6F140}"/>
   </bookViews>
   <sheets>
     <sheet name="1_1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="58">
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>LOINC_Code</t>
-  </si>
-  <si>
     <t>30313-1</t>
   </si>
   <si>
@@ -68,18 +62,12 @@
     <t>inf</t>
   </si>
   <si>
-    <t>LOINC_Code_1</t>
-  </si>
-  <si>
     <t>scale_low_1</t>
   </si>
   <si>
     <t>scale_top_1</t>
   </si>
   <si>
-    <t>LOINC_Code_2</t>
-  </si>
-  <si>
     <t>scale_low_2</t>
   </si>
   <si>
@@ -213,6 +201,18 @@
   </si>
   <si>
     <t>day</t>
+  </si>
+  <si>
+    <t>LOINC-NUM</t>
+  </si>
+  <si>
+    <t>LOINC-NUM_1</t>
+  </si>
+  <si>
+    <t>LOINC-NUM_2</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -577,42 +577,42 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -621,18 +621,18 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -641,18 +641,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -661,18 +661,18 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -681,38 +681,38 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -721,18 +721,18 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -741,18 +741,18 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -761,18 +761,18 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -781,30 +781,30 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -818,46 +818,51 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -866,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -875,18 +880,18 @@
         <v>4000</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -895,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -904,27 +909,27 @@
         <v>4000</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -933,18 +938,18 @@
         <v>4000</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -953,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>4000</v>
@@ -962,18 +967,18 @@
         <v>10000</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -982,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>4000</v>
@@ -991,27 +996,27 @@
         <v>10000</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>4000</v>
@@ -1020,18 +1025,18 @@
         <v>10000</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1040,27 +1045,27 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>10000</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -1069,56 +1074,56 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>10000</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>10000</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1127,7 +1132,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1136,18 +1141,18 @@
         <v>4000</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -1156,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1165,27 +1170,27 @@
         <v>4000</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1194,18 +1199,18 @@
         <v>4000</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1214,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>4000</v>
@@ -1223,18 +1228,18 @@
         <v>10000</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -1243,7 +1248,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>4000</v>
@@ -1252,27 +1257,27 @@
         <v>10000</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>4000</v>
@@ -1281,18 +1286,18 @@
         <v>10000</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1301,27 +1306,27 @@
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>10000</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -1330,48 +1335,48 @@
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>10000</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>10000</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1391,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,30 +1403,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1433,15 +1438,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>38.5</v>
@@ -1453,247 +1458,247 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1708,7 +1713,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,33 +1727,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1756,16 +1761,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1773,16 +1778,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1790,16 +1795,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1807,16 +1812,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1824,16 +1829,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>2</v>

--- a/kb_dec.xlsx
+++ b/kb_dec.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/687f7b4a636e44f5/master/CDSS/Project/CDSS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{E2CC5040-D5C1-4D48-BB31-79969C9659AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{911FA5E1-8981-433F-9487-9232FE5003FE}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{E2CC5040-D5C1-4D48-BB31-79969C9659AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F3543F-9D7A-49AB-B98B-6A372450264C}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{8389E861-9896-4F04-8F65-8F5CEEC6F140}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{8389E861-9896-4F04-8F65-8F5CEEC6F140}"/>
   </bookViews>
   <sheets>
     <sheet name="1_1" sheetId="1" r:id="rId1"/>
     <sheet name="2_1" sheetId="2" r:id="rId2"/>
     <sheet name="maximal_or" sheetId="3" r:id="rId3"/>
     <sheet name="best_before" sheetId="4" r:id="rId4"/>
+    <sheet name="LOINC" sheetId="5" r:id="rId5"/>
+    <sheet name="states" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="69">
   <si>
     <t>30313-1</t>
   </si>
@@ -213,6 +215,39 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>LONG_COMMON_NAME</t>
+  </si>
+  <si>
+    <t>Hemoglobin [Mass/volume] in Arterial blood</t>
+  </si>
+  <si>
+    <t>Microalbumin [Mass/volume] in Urine by Test strip</t>
+  </si>
+  <si>
+    <t>Temperature of Skin</t>
+  </si>
+  <si>
+    <t>Color of Skin</t>
+  </si>
+  <si>
+    <t>Chills State</t>
+  </si>
+  <si>
+    <t>Allergic State</t>
+  </si>
+  <si>
+    <t>Therapy_desc</t>
+  </si>
+  <si>
+    <t>Hemoglobin State</t>
+  </si>
+  <si>
+    <t>Hematological State</t>
+  </si>
+  <si>
+    <t>Systematic Toxicity</t>
   </si>
 </sst>
 </file>
@@ -577,7 +612,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +853,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1426,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598C2913-5723-4D45-AEF1-2FC59A1FDA8E}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,4 +1882,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0927BB7D-5B35-4BB0-8C97-D76A3596E7F1}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F065526-DF35-460C-B68B-1081FCB11F43}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/kb_dec.xlsx
+++ b/kb_dec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/687f7b4a636e44f5/master/CDSS/Project/CDSS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{E2CC5040-D5C1-4D48-BB31-79969C9659AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F3543F-9D7A-49AB-B98B-6A372450264C}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{E2CC5040-D5C1-4D48-BB31-79969C9659AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF125366-1BFB-4EF0-824E-6060AE03805E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{8389E861-9896-4F04-8F65-8F5CEEC6F140}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{8389E861-9896-4F04-8F65-8F5CEEC6F140}"/>
   </bookViews>
   <sheets>
     <sheet name="1_1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="best_before" sheetId="4" r:id="rId4"/>
     <sheet name="LOINC" sheetId="5" r:id="rId5"/>
     <sheet name="states" sheetId="6" r:id="rId6"/>
+    <sheet name="filter_condition" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="72">
   <si>
     <t>30313-1</t>
   </si>
@@ -248,6 +249,15 @@
   </si>
   <si>
     <t>Systematic Toxicity</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1436,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F065526-DF35-460C-B68B-1081FCB11F43}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,4 +2034,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0E0E48-CA2B-4246-8D16-53213E687EFB}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>